--- a/src/com/corejava/practice/topics/InterviewQuestions (Core Java).xlsx
+++ b/src/com/corejava/practice/topics/InterviewQuestions (Core Java).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="106">
   <si>
     <t>Topic</t>
   </si>
@@ -320,6 +320,21 @@
   </si>
   <si>
     <t>https://github.com/palarghya337/CoreJava/blob/master/src/com/corejava/practice/multithreading/SemaphoreExample.java</t>
+  </si>
+  <si>
+    <t>When to use LinkedList over ArrayList?</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/322715/when-to-use-linkedlist-over-arraylist-in-java?rq=1</t>
+  </si>
+  <si>
+    <t>When static variable is loaded in java?</t>
+  </si>
+  <si>
+    <t>Memory Management</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/4343760/when-is-static-variable-loaded-in-java-runtime-or-compile-time</t>
   </si>
 </sst>
 </file>
@@ -1194,11 +1209,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1869,6 +1884,28 @@
       </c>
       <c r="C69" s="3" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30">
+      <c r="A70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30">
+      <c r="A71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1890,8 +1927,10 @@
     <hyperlink ref="C58" r:id="rId11"/>
     <hyperlink ref="C63" r:id="rId12"/>
     <hyperlink ref="C69" r:id="rId13"/>
+    <hyperlink ref="C70" r:id="rId14"/>
+    <hyperlink ref="C71" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/src/com/corejava/practice/topics/InterviewQuestions (Core Java).xlsx
+++ b/src/com/corejava/practice/topics/InterviewQuestions (Core Java).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
   <si>
     <t>Topic</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Java8</t>
   </si>
   <si>
-    <t>What is flatmap?</t>
-  </si>
-  <si>
     <t>Static variables belong to a class and not to any individual instance. The concept of serialization is concerned with the object's current state. Only data associated with a specific instance of a class is serialized, therefore static member fields are ignored during serialization.</t>
   </si>
   <si>
@@ -335,6 +332,12 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/4343760/when-is-static-variable-loaded-in-java-runtime-or-compile-time</t>
+  </si>
+  <si>
+    <t>What is the difference between map() and flatMap()?</t>
+  </si>
+  <si>
+    <t>https://javarevisited.blogspot.com/2016/03/difference-between-map-and-flatmap-in-java8.html</t>
   </si>
 </sst>
 </file>
@@ -1212,8 +1215,8 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1505,7 +1508,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1850,21 +1853,23 @@
       </c>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="30">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1872,7 +1877,7 @@
         <v>24</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="45">
@@ -1880,10 +1885,10 @@
         <v>24</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30">
@@ -1891,21 +1896,21 @@
         <v>27</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30">
       <c r="A71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1929,8 +1934,9 @@
     <hyperlink ref="C69" r:id="rId13"/>
     <hyperlink ref="C70" r:id="rId14"/>
     <hyperlink ref="C71" r:id="rId15"/>
+    <hyperlink ref="C66" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/src/com/corejava/practice/topics/InterviewQuestions (Core Java).xlsx
+++ b/src/com/corejava/practice/topics/InterviewQuestions (Core Java).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
   <si>
     <t>Topic</t>
   </si>
@@ -338,6 +338,24 @@
   </si>
   <si>
     <t>https://javarevisited.blogspot.com/2016/03/difference-between-map-and-flatmap-in-java8.html</t>
+  </si>
+  <si>
+    <t>What is Stream in Java 8?</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/stream-in-java/</t>
+  </si>
+  <si>
+    <t>How to sort a list of Object?</t>
+  </si>
+  <si>
+    <t>What is WeakHashMap?</t>
+  </si>
+  <si>
+    <t>What is the difference between stream() and parallelStream()?</t>
+  </si>
+  <si>
+    <t>https://www.developer.com/java/data/what-are-sequential-vs.-parallel-streams-in-java.html</t>
   </si>
 </sst>
 </file>
@@ -854,7 +872,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -868,6 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1212,11 +1231,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1911,6 +1930,44 @@
       </c>
       <c r="C71" s="3" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30">
+      <c r="A75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1935,8 +1992,10 @@
     <hyperlink ref="C70" r:id="rId14"/>
     <hyperlink ref="C71" r:id="rId15"/>
     <hyperlink ref="C66" r:id="rId16"/>
+    <hyperlink ref="C72" r:id="rId17"/>
+    <hyperlink ref="C75" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/src/com/corejava/practice/topics/InterviewQuestions (Core Java).xlsx
+++ b/src/com/corejava/practice/topics/InterviewQuestions (Core Java).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
   <si>
     <t>Topic</t>
   </si>
@@ -356,6 +356,30 @@
   </si>
   <si>
     <t>https://www.developer.com/java/data/what-are-sequential-vs.-parallel-streams-in-java.html</t>
+  </si>
+  <si>
+    <t>Why Collection does not extend cloanable and serializable interface?</t>
+  </si>
+  <si>
+    <t>https://www.journaldev.com/1330/java-collections-interview-questions-and-answers</t>
+  </si>
+  <si>
+    <t>Why set does not have get() method?</t>
+  </si>
+  <si>
+    <t>Why set does not allow duplicate elements?</t>
+  </si>
+  <si>
+    <t>What is the difference between HashSet and TreeSet?</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/37761459/for-adding-an-object-in-set-is-it-necessary-to-override-equals-and-hashcode-bot</t>
+  </si>
+  <si>
+    <t>Is it necessary to override hashcode() and equeals() method in a class for adding an object of that class in Set?</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/priorityqueue-poll-method-in-java/</t>
   </si>
 </sst>
 </file>
@@ -872,7 +896,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -886,7 +910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1231,18 +1254,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1329,7 +1353,6 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="2" t="s">
@@ -1360,7 +1383,6 @@
       <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
@@ -1369,7 +1391,6 @@
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="30">
       <c r="A13" s="2" t="s">
@@ -1400,7 +1421,6 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
@@ -1409,7 +1429,6 @@
       <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
@@ -1418,7 +1437,6 @@
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
@@ -1427,7 +1445,6 @@
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
@@ -1436,7 +1453,6 @@
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
@@ -1445,7 +1461,6 @@
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
@@ -1454,7 +1469,6 @@
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
@@ -1463,7 +1477,6 @@
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
@@ -1472,7 +1485,6 @@
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
@@ -1481,7 +1493,6 @@
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
@@ -1490,7 +1501,6 @@
       <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
@@ -1499,7 +1509,6 @@
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
@@ -1508,7 +1517,6 @@
       <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
@@ -1517,7 +1525,6 @@
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="75">
       <c r="A29" s="2" t="s">
@@ -1537,7 +1544,6 @@
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
@@ -1546,7 +1552,6 @@
       <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
@@ -1555,7 +1560,6 @@
       <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
@@ -1564,7 +1568,6 @@
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
@@ -1573,7 +1576,6 @@
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
@@ -1582,7 +1584,6 @@
       <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
@@ -1591,7 +1592,6 @@
       <c r="B36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
@@ -1600,7 +1600,6 @@
       <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" ht="30">
       <c r="A38" s="2" t="s">
@@ -1609,7 +1608,6 @@
       <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
@@ -1618,7 +1616,6 @@
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
@@ -1627,7 +1624,6 @@
       <c r="B40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
@@ -1636,7 +1632,6 @@
       <c r="B41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
@@ -1645,7 +1640,6 @@
       <c r="B42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
@@ -1665,7 +1659,6 @@
       <c r="B44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" ht="30">
       <c r="A45" s="2" t="s">
@@ -1678,14 +1671,16 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="30">
       <c r="A46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
@@ -1694,7 +1689,6 @@
       <c r="B47" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" ht="30">
       <c r="A48" s="2" t="s">
@@ -1714,7 +1708,6 @@
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
@@ -1723,7 +1716,6 @@
       <c r="B50" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
@@ -1732,7 +1724,6 @@
       <c r="B51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" ht="30">
       <c r="A52" s="2" t="s">
@@ -1785,7 +1776,6 @@
       <c r="B56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
@@ -1794,7 +1784,6 @@
       <c r="B57" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" ht="30">
       <c r="A58" s="2" t="s">
@@ -1814,7 +1803,6 @@
       <c r="B59" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
@@ -1823,7 +1811,6 @@
       <c r="B60" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
@@ -1832,7 +1819,6 @@
       <c r="B61" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
@@ -1841,7 +1827,6 @@
       <c r="B62" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" ht="45">
       <c r="A63" s="2" t="s">
@@ -1861,7 +1846,6 @@
       <c r="B64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
@@ -1870,7 +1854,6 @@
       <c r="B65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" ht="30">
       <c r="A66" s="2" t="s">
@@ -1939,7 +1922,7 @@
       <c r="B72" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1968,6 +1951,52 @@
       </c>
       <c r="C75" s="3" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30">
+      <c r="A76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="45">
+      <c r="A80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1994,8 +2023,11 @@
     <hyperlink ref="C66" r:id="rId16"/>
     <hyperlink ref="C72" r:id="rId17"/>
     <hyperlink ref="C75" r:id="rId18"/>
+    <hyperlink ref="C76" r:id="rId19"/>
+    <hyperlink ref="C80" r:id="rId20"/>
+    <hyperlink ref="C46" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/src/com/corejava/practice/topics/InterviewQuestions (Core Java).xlsx
+++ b/src/com/corejava/practice/topics/InterviewQuestions (Core Java).xlsx
@@ -10,14 +10,14 @@
     <sheet name="CoreJavaTopicsOrQuestions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CoreJavaTopicsOrQuestions!$A$1:$C$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CoreJavaTopicsOrQuestions!$A$1:$C$80</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="133">
   <si>
     <t>Topic</t>
   </si>
@@ -380,6 +380,43 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/priorityqueue-poll-method-in-java/</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/25602382/java-hashset-vs-treeset-when-should-i-use-over-other/25602519</t>
+  </si>
+  <si>
+    <t>What is fail-fast and fail-safe?</t>
+  </si>
+  <si>
+    <t>https://www.java67.com/2015/06/what-is-fail-safe-and-fail-fast-iterator-in-java.html</t>
+  </si>
+  <si>
+    <t>What is the difference between synchronized map, ConcurrentHashMap and HashTable?</t>
+  </si>
+  <si>
+    <t>https://javarevisited.blogspot.com/2011/04/difference-between-concurrenthashmap.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why Hashtable and ConcurrentHashMap does not allow null keys or values?
+</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/11981852/why-hashtable-does-not-allow-null-keys-or-values</t>
+  </si>
+  <si>
+    <t>What is the difference between ArrayList and LinkedList?</t>
+  </si>
+  <si>
+    <t>https://www.java67.com/2012/12/difference-between-arraylist-vs-LinkedList-java.html</t>
+  </si>
+  <si>
+    <t>What is the difference between ArrayList and Vector?</t>
+  </si>
+  <si>
+    <t>https://javarevisited.blogspot.com/2011/09/difference-vector-vs-arraylist-in-java.html</t>
+  </si>
+  <si>
+    <t>https://www.java67.com/2012/10/difference-between-serializable-vs-externalizable-interface.html</t>
   </si>
 </sst>
 </file>
@@ -1254,11 +1291,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1372,16 +1409,19 @@
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1980,12 +2020,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" ht="45">
       <c r="A79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>117</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="45">
@@ -1999,8 +2042,63 @@
         <v>118</v>
       </c>
     </row>
+    <row r="81" spans="1:3" ht="30">
+      <c r="A81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30">
+      <c r="A82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30">
+      <c r="A83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30">
+      <c r="A84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30">
+      <c r="A85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C43"/>
+  <autoFilter ref="A1:C80"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -2026,8 +2124,16 @@
     <hyperlink ref="C76" r:id="rId19"/>
     <hyperlink ref="C80" r:id="rId20"/>
     <hyperlink ref="C46" r:id="rId21"/>
+    <hyperlink ref="C79" r:id="rId22"/>
+    <hyperlink ref="C81" r:id="rId23"/>
+    <hyperlink ref="C82" r:id="rId24"/>
+    <hyperlink ref="C83" r:id="rId25"/>
+    <hyperlink ref="C84" r:id="rId26"/>
+    <hyperlink ref="C85" r:id="rId27"/>
+    <hyperlink ref="C11" r:id="rId28"/>
+    <hyperlink ref="C10" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/src/com/corejava/practice/topics/InterviewQuestions (Core Java).xlsx
+++ b/src/com/corejava/practice/topics/InterviewQuestions (Core Java).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="150">
   <si>
     <t>Topic</t>
   </si>
@@ -417,6 +417,57 @@
   </si>
   <si>
     <t>https://www.java67.com/2012/10/difference-between-serializable-vs-externalizable-interface.html</t>
+  </si>
+  <si>
+    <t>Advantages of ExecutorService over Thread class.</t>
+  </si>
+  <si>
+    <t>Difference between CompletableFuture and ExecutorService</t>
+  </si>
+  <si>
+    <t>Difference between runAsync() vs submitAsync() method of CompletableFuture</t>
+  </si>
+  <si>
+    <t>Iterator vs Spliterator</t>
+  </si>
+  <si>
+    <t>What is default method and why it is introduced?</t>
+  </si>
+  <si>
+    <t>Function vs Predicate</t>
+  </si>
+  <si>
+    <t>Internal vs External iterator</t>
+  </si>
+  <si>
+    <t>What is method reference in java?</t>
+  </si>
+  <si>
+    <t>Difference between lambda expression and anonymous inner class</t>
+  </si>
+  <si>
+    <t>What is the difference between PermGenSpace and MetaSpace?</t>
+  </si>
+  <si>
+    <t>Java8 (Advanced)</t>
+  </si>
+  <si>
+    <t>Java8 (Interface)</t>
+  </si>
+  <si>
+    <t>What is Consumer in java?</t>
+  </si>
+  <si>
+    <t>https://www.javabrahman.com/java-8/java-8-java-util-function-consumer-tutorial-with-examples/</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/3984076/what-are-the-advantages-of-using-an-executorservice</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>What is the size of boolean, byte, sort, char, int, float, long and double primitive data types?</t>
   </si>
 </sst>
 </file>
@@ -1291,11 +1342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1509,6 +1560,9 @@
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
@@ -1525,6 +1579,9 @@
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
@@ -1533,6 +1590,9 @@
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
@@ -2095,6 +2155,108 @@
       </c>
       <c r="C85" s="3" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30">
+      <c r="A86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2132,8 +2294,10 @@
     <hyperlink ref="C85" r:id="rId27"/>
     <hyperlink ref="C11" r:id="rId28"/>
     <hyperlink ref="C10" r:id="rId29"/>
+    <hyperlink ref="C86" r:id="rId30"/>
+    <hyperlink ref="C96" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>